--- a/SGSST/SG-SST AÑO 2023/19_Indicadores segun Resolucion 0312/2_Indicador severidad de accidentalidad.xlsx
+++ b/SGSST/SG-SST AÑO 2023/19_Indicadores segun Resolucion 0312/2_Indicador severidad de accidentalidad.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dayana Git\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Indicadores segun Resolucion 0312\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\19_Indicadores segun Resolucion 0312\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7315F7-FD60-4A31-905B-FB8FBC2BA38E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SA" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">SA!$A$1:$M$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>usuario</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,14 +161,15 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Al cierre del semestre del 2023; NO se presentaron accidentes de trabajo por lo cual no hubo incapacidades ni perdida de dias por accidentalidad. </t>
+Al cierre del primer semestre del 2023; NO se presentaron accidentes de trabajo por lo cual no hubo incapacidades ni perdida de dias por accidentalidad. 
+En el mes de Julio, que representa el inicio del segundo semestre del año 2023, se presentó un 1 accidente de trabajo sin embargo no generó incapacidad. </t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,7 +540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,7 +631,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1805,14 +1805,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2001,7 +2001,9 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
